--- a/marc_parse_table.xlsx
+++ b/marc_parse_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\SHSU\SHSU Spring 2023\Compiler Design\compiler_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\SHSU\SHSU Spring 2023\Compiler Design\compiler_files\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5130EEFE-88C6-4CB2-8A51-A260383E17EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBC1F79-6D83-436A-A91C-B90190C602DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="330" windowWidth="16440" windowHeight="28590" xr2:uid="{B4E4E313-B65D-4530-8869-3954A3482CDA}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{B4E4E313-B65D-4530-8869-3954A3482CDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>&lt;var&gt;</t>
   </si>
@@ -68,9 +68,6 @@
     <t>}</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>;</t>
   </si>
   <si>
@@ -129,6 +126,12 @@
   </si>
   <si>
     <t>&lt;adop&gt;</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
 </sst>
 </file>
@@ -481,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7881026-0B7A-407A-B09B-A2F8FF2969A2}">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +512,7 @@
     <col min="18" max="18" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -538,31 +541,34 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
-        <v>18</v>
-      </c>
       <c r="R1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -615,26 +621,29 @@
         <v>27</v>
       </c>
       <c r="R2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -686,16 +695,19 @@
       <c r="Q5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -747,8 +759,11 @@
       <c r="Q7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -756,7 +771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -808,8 +823,11 @@
       <c r="Q9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -861,8 +879,11 @@
       <c r="Q10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -914,16 +935,19 @@
       <c r="Q11">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -975,24 +999,27 @@
       <c r="Q13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1044,72 +1071,75 @@
       <c r="Q16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1161,37 +1191,104 @@
       <c r="Q25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>29</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
